--- a/ThammitageJDR_Perera_Unit1_Excercise2.xlsx
+++ b/ThammitageJDR_Perera_Unit1_Excercise2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delan\Desktop\NorQuest Assignments\BUDS 1060\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delan\Desktop\NorQuest Assignments\GIT\UDA_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2BF082-8C52-45D6-BB36-D104FCC2BFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A969188-76A7-4D71-8005-4C2F310A1370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FF79AD73-FAAF-43CB-8911-51C58CE72BEF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Geography3</t>
   </si>
@@ -159,16 +159,25 @@
   </si>
   <si>
     <t>Women+</t>
+  </si>
+  <si>
+    <t>New Column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,9 +203,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,8 +231,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{98292F99-2F1E-469B-955C-5C182DE785D1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Geography3" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Canada (map)" tableColumnId="3"/>
@@ -232,15 +240,16 @@
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
       <queryTableField id="7" name="Column7" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}" name="Sheet1" displayName="Sheet1" ref="A1:G71" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G71" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}" name="Sheet1" displayName="Sheet1" ref="A1:H71" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H71" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6B5E0FA0-888F-491B-B24C-D18BFDCCA05E}" uniqueName="1" name="Geography3" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2A8F26E1-2FEA-4C84-B8AD-44F36986BCAD}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{AC781F66-D9C0-48DC-918B-8A11CCC46164}" uniqueName="3" name="Canada (map)" queryTableFieldId="3"/>
@@ -248,6 +257,7 @@
     <tableColumn id="5" xr3:uid="{0B882D99-DECF-464C-A446-44FFD130EC86}" uniqueName="5" name="Column5" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{03ECEDA9-09DF-4521-860C-C0916EB80830}" uniqueName="6" name="Column6" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{14A6643A-41D5-4C50-A0FF-E2D1007B08DC}" uniqueName="7" name="Column7" queryTableFieldId="7"/>
+    <tableColumn id="10" xr3:uid="{27302F2E-0461-41A0-BF04-6718C3C49720}" uniqueName="10" name="New Column" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,9 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0C360D-BE84-4208-B7A9-8364F942550D}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -580,9 +592,10 @@
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,21 +617,23 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -637,22 +652,16 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
@@ -671,9 +680,8 @@
         <v>21117.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
@@ -692,9 +700,8 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
@@ -713,9 +720,8 @@
         <v>18450.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9">
@@ -734,9 +740,8 @@
         <v>9929.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -755,9 +760,8 @@
         <v>7386.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11">
@@ -776,9 +780,8 @@
         <v>8521.2000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12">
@@ -797,9 +800,8 @@
         <v>14089.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
@@ -818,9 +820,8 @@
         <v>4361.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14">
@@ -839,9 +840,8 @@
         <v>19983.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
@@ -860,9 +860,8 @@
         <v>823.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16">
@@ -882,8 +881,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17">
@@ -903,8 +901,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
@@ -924,8 +921,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19">
@@ -945,8 +941,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20">
@@ -966,8 +961,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21">
@@ -987,8 +981,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22">
@@ -1008,8 +1001,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23">
@@ -1029,8 +1021,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24">
@@ -1050,8 +1041,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25">
@@ -1071,8 +1061,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="C26">
@@ -1092,8 +1081,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27">
@@ -1113,10 +1101,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28">
@@ -1136,8 +1124,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29">
@@ -1157,8 +1144,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30">
@@ -1178,8 +1164,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31">
@@ -1199,8 +1184,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32">
@@ -1219,9 +1203,8 @@
         <v>3840.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33">
@@ -1240,9 +1223,8 @@
         <v>4512.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>19</v>
       </c>
       <c r="C34">
@@ -1261,9 +1243,8 @@
         <v>7370.7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35">
@@ -1282,9 +1263,8 @@
         <v>2394.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36">
@@ -1303,9 +1283,8 @@
         <v>10476.4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37">
@@ -1324,9 +1303,8 @@
         <v>412.3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38">
@@ -1345,9 +1323,8 @@
         <v>971.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
       <c r="C39">
@@ -1366,9 +1343,8 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
       <c r="C40">
@@ -1387,9 +1363,8 @@
         <v>1387.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41">
@@ -1408,9 +1383,8 @@
         <v>1336.6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>27</v>
       </c>
       <c r="C42">
@@ -1429,9 +1403,8 @@
         <v>1264.5999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>28</v>
       </c>
       <c r="C43">
@@ -1450,9 +1423,8 @@
         <v>1082.3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44">
@@ -1471,9 +1443,8 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45">
@@ -1492,9 +1463,8 @@
         <v>934.2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46">
@@ -1513,9 +1483,8 @@
         <v>787.8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47">
@@ -1534,9 +1503,8 @@
         <v>672.6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
       <c r="C48">
@@ -1556,8 +1524,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>34</v>
       </c>
       <c r="C49">
@@ -1577,10 +1544,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50">
@@ -1600,8 +1567,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51">
@@ -1621,8 +1587,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52">
@@ -1642,8 +1607,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53">
@@ -1663,8 +1627,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54">
@@ -1684,8 +1647,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55">
@@ -1705,8 +1667,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56">
@@ -1726,8 +1687,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>20</v>
       </c>
       <c r="C57">
@@ -1747,8 +1707,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58">
@@ -1768,8 +1727,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59">
@@ -1789,8 +1747,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>23</v>
       </c>
       <c r="C60">
@@ -1810,8 +1767,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>24</v>
       </c>
       <c r="C61">
@@ -1831,8 +1787,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>25</v>
       </c>
       <c r="C62">
@@ -1852,8 +1807,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63">
@@ -1873,8 +1827,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>27</v>
       </c>
       <c r="C64">
@@ -1893,9 +1846,8 @@
         <v>1141.4000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>28</v>
       </c>
       <c r="C65">
@@ -1914,9 +1866,8 @@
         <v>1086.0999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66">
@@ -1935,9 +1886,8 @@
         <v>955.4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>30</v>
       </c>
       <c r="C67">
@@ -1956,9 +1906,8 @@
         <v>857</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>31</v>
       </c>
       <c r="C68">
@@ -1977,9 +1926,8 @@
         <v>647.9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>32</v>
       </c>
       <c r="C69">
@@ -1998,9 +1946,8 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>33</v>
       </c>
       <c r="C70">
@@ -2019,9 +1966,8 @@
         <v>307.8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71">
@@ -2041,6 +1987,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/ThammitageJDR_Perera_Unit1_Excercise2.xlsx
+++ b/ThammitageJDR_Perera_Unit1_Excercise2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delan\Desktop\NorQuest Assignments\GIT\UDA_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A969188-76A7-4D71-8005-4C2F310A1370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BA9EC-2875-4B37-9AF1-84FAA560BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FF79AD73-FAAF-43CB-8911-51C58CE72BEF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>Geography3</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>New Column</t>
+  </si>
+  <si>
+    <t>New Column2</t>
   </si>
 </sst>
 </file>
@@ -231,8 +234,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{98292F99-2F1E-469B-955C-5C182DE785D1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9" unboundColumnsRight="1">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="10" unboundColumnsRight="2">
+    <queryTableFields count="9">
       <queryTableField id="1" name="Geography3" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Canada (map)" tableColumnId="3"/>
@@ -241,15 +244,16 @@
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
       <queryTableField id="7" name="Column7" tableColumnId="7"/>
       <queryTableField id="8" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}" name="Sheet1" displayName="Sheet1" ref="A1:H71" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H71" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}" name="Sheet1" displayName="Sheet1" ref="A1:I71" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I71" xr:uid="{0CEB632C-4128-44C7-BD21-3B0E86472AC1}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6B5E0FA0-888F-491B-B24C-D18BFDCCA05E}" uniqueName="1" name="Geography3" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2A8F26E1-2FEA-4C84-B8AD-44F36986BCAD}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{AC781F66-D9C0-48DC-918B-8A11CCC46164}" uniqueName="3" name="Canada (map)" queryTableFieldId="3"/>
@@ -258,6 +262,7 @@
     <tableColumn id="6" xr3:uid="{03ECEDA9-09DF-4521-860C-C0916EB80830}" uniqueName="6" name="Column6" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{14A6643A-41D5-4C50-A0FF-E2D1007B08DC}" uniqueName="7" name="Column7" queryTableFieldId="7"/>
     <tableColumn id="10" xr3:uid="{27302F2E-0461-41A0-BF04-6718C3C49720}" uniqueName="10" name="New Column" queryTableFieldId="8"/>
+    <tableColumn id="8" xr3:uid="{CC69399B-E924-463F-97D7-A196B92959A0}" uniqueName="8" name="New Column2" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0C360D-BE84-4208-B7A9-8364F942550D}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +597,10 @@
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +625,11 @@
       <c r="H1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -629,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -652,12 +660,12 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -680,7 +688,7 @@
         <v>21117.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -700,7 +708,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -720,7 +728,7 @@
         <v>18450.7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -740,7 +748,7 @@
         <v>9929.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -760,7 +768,7 @@
         <v>7386.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -780,7 +788,7 @@
         <v>8521.2000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -800,7 +808,7 @@
         <v>14089.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -820,7 +828,7 @@
         <v>4361.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -840,7 +848,7 @@
         <v>19983.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -860,7 +868,7 @@
         <v>823.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>23</v>
       </c>
